--- a/src/Cotizaciones/REC2001_20123456789.xlsx
+++ b/src/Cotizaciones/REC2001_20123456789.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7120AB9A-165D-4ED3-9576-C1DBD4E3813D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD030A4-D7F1-4D24-AF2E-565B29043C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4752" yWindow="2784" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1692" yWindow="1452" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Cotización de Servicios</t>
   </si>
@@ -63,15 +63,9 @@
     <t>FechaEmision</t>
   </si>
   <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
     <t>Razón Social:</t>
   </si>
   <si>
-    <t>FechaRecepcion (opcional)</t>
-  </si>
-  <si>
     <t>Moneda</t>
   </si>
   <si>
@@ -151,6 +145,9 @@
   </si>
   <si>
     <t>Nutra Nuggets Puppy 4kg</t>
+  </si>
+  <si>
+    <t>FechaEntrega</t>
   </si>
 </sst>
 </file>
@@ -274,7 +271,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -319,6 +316,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -711,7 +712,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +729,7 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="17">
         <v>96231</v>
@@ -744,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -778,7 +779,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="14">
         <v>20456789123</v>
@@ -786,19 +787,22 @@
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
+      <c r="E10" s="23">
+        <v>45962</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="23">
+        <v>45980</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -806,44 +810,44 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -851,7 +855,7 @@
         <v>1000</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4">
         <v>150</v>
@@ -869,7 +873,7 @@
         <v>1002</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4">
         <v>80</v>
@@ -887,7 +891,7 @@
         <v>1012</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4">
         <v>150</v>
@@ -905,7 +909,7 @@
         <v>1008</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4">
         <v>50</v>
@@ -923,7 +927,7 @@
         <v>1035</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4">
         <v>80</v>
@@ -941,7 +945,7 @@
         <v>1004</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4">
         <v>100</v>
@@ -959,7 +963,7 @@
         <v>1006</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4">
         <v>40</v>
@@ -974,7 +978,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" s="6">
         <f>SUM(E17:E23)</f>
@@ -983,7 +987,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E26" s="6">
         <f>ROUND(E25*0.18,2)</f>
@@ -992,7 +996,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E27" s="7">
         <f>E25+E26</f>
@@ -1001,7 +1005,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
